--- a/Load/ontology/Microbiome/doc/Microbiome_terms.xlsx
+++ b/Load/ontology/Microbiome/doc/Microbiome_terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/Microbiome/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA380F-24FD-6843-A933-B5C1E48E01BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA2337-63FB-F14A-A89C-965A1262EF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="580" windowWidth="27900" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="580" windowWidth="27900" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="3501">
   <si>
     <t>ID</t>
   </si>
@@ -10528,6 +10528,9 @@
   </si>
   <si>
     <t>A time measurement datum measuring the number of days that a person is administered Gentamicin.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UPHENO_0001001 phenotype, if we don't specify 'host', then the cross-species phenotype term can be used. (when harmonized with clinEpi, not mention host now)</t>
   </si>
 </sst>
 </file>
@@ -11020,7 +11023,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11028,6 +11031,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11386,8 +11390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11507,6 +11511,9 @@
       </c>
       <c r="B8" t="s">
         <v>2020</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:7">
